--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/64_Osmaniye_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/64_Osmaniye_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{191D9F84-7CC1-445F-B1BB-733B9B868F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57508A03-4F67-43B7-8C5D-0173E681C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AF96387-39BD-4633-A465-3F0404A2C2B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F7A4559-2DF3-4081-AC67-282E9F5376F0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{EEFD81B8-207C-41C0-8794-249608477D19}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{A4BE8E39-7E49-4D78-9BE7-75AFAF959178}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{6E06D8EA-A9CB-4850-BD86-F0EC6E4E2C14}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{B8B30FD2-C8C3-461A-98AD-8F23C5C28077}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{8984651E-A149-4F15-93C3-94B71E035E22}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{20F54630-5B50-4C65-9A1F-670F9121A830}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{9361297D-12DB-4FF2-BF8D-3CB9BD760FD6}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{8FA6AAD4-C7F5-4D39-BE88-4B44937448B0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46063439-E07C-4431-92EA-EA38F87B17E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986658CF-01E9-4C45-BC09-2FF398ED6522}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2413,18 +2413,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{74DF9529-4F30-4B96-A109-8F186BE4FF42}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3D9F3726-7D55-4C36-A91F-28EB784511CA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2AA2CA24-573B-423F-B09F-926FE32C5D35}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{564A667A-121D-4529-AD78-85468EDBCBB8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BA0A65D8-B330-4CE3-8609-02639A30D2C0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{46FB31CF-F771-4C97-AE86-7B941052043D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{885F8876-899D-4806-A5B8-BBD05BF9DBD8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{53E4A061-6399-47BD-817D-34B3F10655DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{46B4A8CF-4A1C-412D-9C74-266D27E6F185}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6C767706-1A14-4EB8-993F-BF1A91F8B906}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{38CDB8D2-2F51-472D-83E9-20B2D982D671}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8D01185F-E6B1-4769-91A5-22BFA21515CF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{93C8285A-C26B-451C-94AA-4F5964131523}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{206FCA8E-6B65-434B-8C37-34685A0855A4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F380E9DB-E7FE-4CBC-B3AC-ED2C2FFFE40A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C239DF6B-973B-4D74-8807-42061596A26D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{93DA401C-48CA-485F-9157-6F3CF4BD79C0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2CF7419B-52D6-4D8C-9CC5-F45BAE03FFAD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{34700893-B7A1-436A-8ADC-27881D8592B1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{811A8369-463B-40BB-A19A-7C537B837F5D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{11368519-6A60-467A-8453-C5529929DC91}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8F7D82A9-71E2-41F1-81EA-8E809203E69E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{443BDA46-1C24-4DA5-9151-A971C391512C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7104B684-65FE-410E-908E-AE14457F648F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2437,7 +2437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5386526-0933-4A4F-B70C-6D11ADC19D48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CDA2D7-DDD0-4D4C-96FB-EF90412355E6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3594,18 +3594,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0884194B-33A9-4E0D-823F-682400DF7F07}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7572F12C-DE3E-443A-AE9A-4F8D05DD1384}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8D79C8AC-A0BF-4BE9-A29A-6528794CE5BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B4D112B0-7AC7-4C4B-A139-56EFB019E9B8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ADB51DD5-08FC-411C-8083-B2FAF5525701}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{422D99F9-F906-4517-A64F-CAD3BDC11A2F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5DCDB388-9732-4BE6-BCA0-6491F2EB10DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4F851C65-1888-4622-8C78-520E937CEE5A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D0AFDCD1-087F-49F1-9446-26D49EC3A13D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{80102B0E-772C-4263-B1D6-412305CE161E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{813F4ECA-9919-4CA9-A1E0-737431845851}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{392B7222-6629-40A0-94D3-A232DCFA0D65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E9BA0AD9-FD24-46C4-98B8-637469727618}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{247EEA55-A0AA-4C43-9A1B-DE99064FFA7E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2D9F9FB8-4E2F-4D30-B0BC-6CD63C92C215}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{209DBE23-CC2C-49A7-BE3F-4E9798F9AC8A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{714A9951-1433-45FA-8A62-C5AF0017A522}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3A97AF08-7C2B-4306-A9F0-23EBA6FAF50C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0DE3607D-EB75-40BE-B175-5396A99C9FB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{49129DFD-31EE-4E01-BC59-9BBE58C2944C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3286E983-1E0B-45C9-991F-4EEA92BB3E5C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C638A85E-B81A-4AA8-AD07-4FF1097B2131}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D3C4FDA9-6279-4988-839C-939B58314EE2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2990499C-4B5E-4252-B600-DAEDC71A37FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3618,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA31A1A-F9A3-499E-8244-1893A77D88B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F5CF88-171F-4DE5-9F98-0F079DF6A40D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4775,18 +4775,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{096FAD1B-EB99-4354-8E01-0C32DC730B4E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CD99BA18-E829-4CDE-A27D-BC035223AD3A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E4F2E4D3-3E46-483F-8729-0077281CD1A7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{145083DF-FAE2-4DBF-926E-AE8866691FAA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C263BC61-D801-4296-8216-827047B78B2B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2EF0D9F3-B8B3-4FA9-8E68-153410CA3638}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{92DDC14F-B15A-4F9D-AF10-B27AA911FA7A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BD97ECFB-7875-45FA-900C-6F7BC4765147}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8F11D1BB-052E-4453-8266-4CB98504D7B9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EC7C5AE5-F175-4DEB-9897-755F2C435A77}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{423610DC-68D7-41A9-BDAF-45E5CD5DABA5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DF072270-2753-4060-B6A1-9EEF0AE26CF3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{638D9D43-FD23-4EBD-8F7A-55D5960D0B4D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{661CDBB9-2789-46BB-9920-ECCC56D5B907}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7F923AB9-E086-44F2-9BCC-4DB43984FCA4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{65DF8BB5-E337-47FB-8CB5-77DB8CEA867A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2E9F5942-57F5-44EC-B7F9-8876ECA85732}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8690782D-E019-4EF5-9512-55280D95F263}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{78DD8985-078C-4ABA-90DD-A95CB400A826}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{38291F42-85C7-4F2C-AD88-14B12DF94D84}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{08FEA1E8-0577-4E4B-991B-ED3E30E61B9A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5BD6D513-1851-4211-9255-06E556EB4D75}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B37E03F7-E4D7-4230-93D0-280749A811FC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{70C70E7B-C1D6-4B28-B6ED-CFEC32FA4B84}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4799,7 +4799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBFDD57-0FD9-42ED-BC8A-429993B134EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11381B4-F347-49E9-93B4-807DE3381A58}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5956,18 +5956,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7B0D19C9-7035-4137-8C7F-36502CA4E1C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{07D127A1-9324-43DE-8519-BB5689575834}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{12A2C71B-4DEF-4DC8-A8BB-0F5F1EC8CAD0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D4F6B24A-8429-4A87-92B5-45ECDA0C8898}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{85AA9386-F461-4396-B1E0-550CC64225BF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{78431070-6FE3-475B-92DE-BFBBA7EF510C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CE602E6C-4586-4C1E-857F-2454B39EE287}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4A78D91C-A118-4C80-A9AE-FD54D5791DBF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F2F58E9F-4FFA-406F-A89A-CE58BD4BACAA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EC8331F4-C425-4E43-BFE7-72815B1131AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B3234D65-65B5-403D-A051-FDF5D3822CF1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F6EC19D1-5CEC-4279-AF9D-BB20F520D4D3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{29A7C7B3-03EC-489B-89D9-CAC796AF819E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{213566C1-C327-4E9A-8F02-C251107517EF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2C880A9B-AFC0-4ECA-8B39-95688346027D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{23C86D05-A83D-4F85-95BD-B33934A8AF53}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{51DCA8E5-FC24-47CE-85FC-A91BACD56438}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A3780B0B-748C-4CA0-B77E-841CB423F2BA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9BFDFEDD-8A96-412C-8132-3B8C25B77C34}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A2271E9D-2538-4065-968B-07CA1172D0AB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D5BB5222-3CC6-48DB-B354-C360DDE5673B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{77DA49BF-77FE-4375-96A7-2A2DEE6E1A1E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{95A527C4-031E-4996-A71A-FF81AA37E9E1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{65789B29-E217-4BBB-BAFA-237FDF6DDD97}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5980,7 +5980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7B8E24-9D88-4875-863B-282834D18F2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96923EF-45A5-43D4-AAAB-690ED9C9187D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7165,18 +7165,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{106F9430-EB9B-4DB4-AA74-9F18A7D6C1AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B96B7B86-C09A-415A-A289-29D339D452BF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3A49A8BA-EEEA-4FFD-A0A0-510406A7A657}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B0500D64-9B7B-46B9-8962-6E12C6405FCE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{92E9E2AF-7A43-4877-A11D-A14CDD66A022}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DD9F9631-6B63-43ED-BBBC-D0C89941F034}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8788C4C1-8D6D-4051-B03A-3D9F99E6F9EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AE5C0C1A-F2DC-494F-AB4F-204A563AF6C3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{294C7871-4CE5-40DE-BE37-F71086053291}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BEAE3CE2-7E79-4A9E-92CB-BCC4C301231D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9EC96AFE-E496-4992-8C66-C837C6B47853}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8758A253-D931-4B35-91CA-0ABBC5C1D084}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5C9BA86A-45FE-44B0-9DEA-FCD1A79DB557}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{90097616-5686-459F-B93A-AB0FE4AEB9A2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{690ED914-790B-4080-A9C5-929A0354B10B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{08516AD8-2CC3-42D8-84A3-2FB100FDCFBE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FA3806C3-E268-4EFC-B46B-2713A1D94C96}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{53425046-C1CA-42AA-B61D-0AB9A023602F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A29B868E-79AA-4826-A544-05600F4FCD99}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C9DFE770-68B0-4EF8-A856-9DE634DA1E96}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B04D7C62-36F8-4E20-8AE7-D61466F07A49}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{68588DD9-AD99-4785-8CA7-488FFBA5FB53}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BDF94DC5-D11E-4129-A83C-33EBB824A9F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DC4AE205-0BDE-4F01-B3F0-78CB9E1A35C6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7189,7 +7189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D557F8-738D-46E8-AD43-144DAF89DCBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C2B086-64C7-4407-83C5-D58B6D4E88F0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8372,18 +8372,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CAA9A88B-0E38-465C-9324-7EAD0954F0BE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AEEEC0CC-F8CE-4629-9D69-6256A8453A11}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B0C58282-4A19-4346-A655-8B5256062986}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{223D3CA4-97B6-4CA3-8859-14DC34A4D93F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8DB1A76F-CBF8-4300-81D9-55C5BA9DCA3E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8133E9AB-A7D4-4772-8E29-2E54F1E7C465}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6861E3A5-5D66-40E2-BCE5-853388008F07}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DE9D49E2-D6D7-416E-B284-F604FCE3AF5C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7C8E2E36-B780-4E2E-8112-2FA2FADB0008}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2256A621-37F3-464F-A512-921780CD1952}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{73053556-5A04-41AC-A0A9-021E9E2B7129}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A8D30602-D73F-4D5A-AB23-7E3EE890FA7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C9AA38CF-EE54-4BB4-B67D-8C7EE91DAA83}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{309C02CC-668A-43C3-8EDD-0C1D75970949}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{66E1498B-F430-4491-86E1-85CE1E20F6C6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D5C355E3-F4B4-4761-A224-30D10B4F6ED4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6C2ACFF3-6FD6-4545-A2ED-47AF0E4B25FE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6D75C816-6E1A-4885-AE3A-6D4C174713F6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0D24B3C7-7710-4354-BEA5-0C6DF7D1F348}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{47178260-D1B6-4387-B515-30340749DABD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BF0D8645-6292-4933-B303-078E1742AE8C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ADF7DA8C-73B7-4A98-A476-527CC5FD70EA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{46F9A326-920B-446D-948E-1944A946571B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DE6321BE-B64B-472E-AFA9-9DCA83423C74}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8396,7 +8396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF90E1E5-C426-4A9E-B6DF-61ABB193829A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BDB8EB-19FA-4F6F-9C26-E6D9BCFB0AA9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9575,18 +9575,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E6C26DC2-F781-466B-91A8-388BC4D07E31}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A2AFFD8D-8F42-4005-A810-E2B506E90EEB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{37C94D3C-921A-49BA-8F4D-A29778D4DE2E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{64B66C86-B5DE-4169-84D1-AE5BA76A874A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2020DF3D-9E0F-40A0-BE2A-8DA34DE81EE6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{941D5012-1991-4815-9D2D-BDD4CA364044}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D6984215-F65E-480B-8670-EA65B654131D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D745B4E0-77AD-41D9-BFEC-A629B4677BAD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C7A86315-B18F-4777-9A44-620783D72B1D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{137299F2-DCD0-41AA-97AB-E724101978CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{40067FF0-4D67-413C-AC2B-AD533FFD71E6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7B0AC82A-09D5-491D-8856-E6A33F13497F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{99146A1A-327B-4370-8814-DF2F9B8CF0D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9DBC03FE-270D-42D2-89AE-94384BAF0922}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DE2EE76E-8B0F-4693-89F5-AF5758E935EC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0892A326-B648-4524-BD58-8ADAC5A4B622}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FAC1851E-A94C-467A-90AD-58FCDAA1C0D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F6B73BB0-5CD2-4E75-B512-66155890C2E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B6639E4B-9B37-41DE-9B54-B706BA2A284E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CB46AB84-56D0-4BA5-8BA1-F726CD17255A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C1D6D433-C19A-425B-9C30-48E839E247D9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{57B8E666-546C-4638-81F2-008ED0A5A0A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E36E0FDA-F708-49FA-9FAB-7EB71E42E0AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FAF836ED-B4C5-42E1-9642-78B8F9030543}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9599,7 +9599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1B7925-AEEC-456A-A267-B4781E3D5B53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C91B792-E5EC-4219-A512-3C00375512B3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10772,18 +10772,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1994CD75-AE08-411A-A4B5-4A87D8D35A94}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A5222E0B-8B50-432C-89CC-6FF8C5A65E5B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{119AF3BE-FADC-4220-8A7D-9C3D71390562}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7C7483B4-EA72-4B02-AFED-A9E08895A0BD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AB1D8335-A99C-44FC-9699-E47CB944E523}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6B7E3BAA-FB56-40BD-9493-FBFF8542E8F6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{51DAD713-C0A2-427E-8F89-DF672512D624}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3948D3C6-5B87-490B-86CB-F7902265192B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BF8B7F61-D0B0-4858-BF26-E502128138F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A565F19F-8186-4C1A-92A1-7EDF62E35863}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1B0FB4A9-45EA-4E58-A0BF-590ED74624FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6870223A-3945-45F8-B918-CCE97F5516A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B8B04826-6863-4B04-8485-78AB321B5900}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1E463660-0A8F-4EAC-B8C5-0592C92EE84C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{915C13B8-112F-40CE-8347-EBBFA5149B81}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DE072D18-00A5-4AED-BC26-9ED13755B191}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C85D4E31-E5C1-469F-9CBF-71144C41B6FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{11CAA2AA-AAAD-4D14-946E-59AE83A8BE39}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D4487104-BF26-455A-BA4F-8C00875BCD21}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F89D739D-1BF9-4EA2-A685-4345F0602A48}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{854B685D-5B6B-4049-929A-7DECD0C34EA2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{89CAD022-6676-49BD-93D2-E6585AE989E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A29CFDA4-B266-4550-AA68-1844DD0BE831}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9CA14E19-01D4-4B00-90D4-CA148B40F8E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10796,7 +10796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856AA9C1-9984-4E41-A325-26C452B60642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FAD5BA-68A4-448A-A3EF-395350835C27}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11961,18 +11961,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BBA63A31-A687-45F1-A27B-838B887D47D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AFC5ACAD-A471-4C2C-982D-45C2B966A17F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D9F66C33-2461-45DE-A621-75DE055558C8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{75BED7FA-CAC8-416D-A483-29AA4676B65E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6B38466B-1E6D-4DD6-89A5-21440425F47C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D580E8E4-D4B2-4E1B-9600-F7B99D569A82}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{391E2476-2704-458A-A6ED-AB4030A78FC2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{629466C0-D556-443E-A560-C25EAF0DAFCE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C57A99BC-95E8-4B2D-A708-30D125B12A3E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8FC6984E-731A-47CC-87D4-C92B7A8A7498}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{31115803-5F86-4086-A2B4-E51F17A0DD43}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B7FD19C0-966F-47A4-BCB5-971AF8256301}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{303E3CF0-8449-4FC9-AC9D-742D60228CB2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1B4BC122-8850-4087-B487-C04D12C31842}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C6CABAF0-4794-4D81-9578-7C0D2CB20D64}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A5B6EDCD-5240-42DA-998E-56EB2671C364}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A20884B7-9FCB-4FF7-B856-FECB562E7E59}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DB299FFD-42B3-4991-9941-33A3383A0796}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{85FA1708-B97E-4EF3-9A0A-6E76A988B3AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C8666ACF-C7D2-4265-87CE-A1BF3200ADEC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{64A01787-66FF-4320-8E29-7D88CC6579ED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{060F139F-5AD2-43E0-B7E5-6120E0809DEC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{499B2D8D-C333-4EE5-BEDF-DD3FA212F2F1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2B49C77F-CE77-4FD9-ADA6-2708080F2DFE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11985,7 +11985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7BDC79-F273-483E-BE77-121F6B9FA449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B557F1-C0F1-4D64-91E2-17FC403B86B3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13150,18 +13150,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C2646217-1734-44F7-B768-1FB66FBA4B70}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B1938DC8-39A8-4E78-8B84-A9899FEC9E46}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C570CCD8-80F0-4E72-9D8A-2DF85504CEEE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{36A87D2B-C016-4BD7-A189-7752B4EA017E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A7266D19-F416-4FB6-BB72-C9AC177A38B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{73CD9365-6AD9-4883-BC85-624D9A6ECBCF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D2374A47-4EEE-4792-9E90-8A2B9FA5443B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{45EDF724-0952-46F6-9FD7-9FCBB509DD2B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CBDF4493-199F-4B52-886F-28ED14C2190A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{38ACD2D3-E7F3-406C-A416-E7C3CF40B63C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{382A5BFF-D7D1-47F5-957A-FE4D9DFE7CC0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C6EB3373-DCC5-4F8F-AA9F-CEBF3EE7128B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{311C78C4-5CFE-41E9-9E09-0166FC2AC28C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{95FE8D87-66A6-4C3C-8EB9-6E6E5486D62B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{814B7674-68C9-4E26-9C4F-C3EB2483FB77}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C0137650-4234-4D02-9362-CE84AC243092}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6FA51896-199B-4BE8-85D2-7EE45C073FED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B4417767-47EE-465C-A1DD-57A26F9A7B3B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{82B749CF-1620-4258-87FD-601A587A9057}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D91817A2-0499-4E7C-84B6-79F42A025B5F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{26CD45B9-0888-4745-8073-8DB7DCC04749}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AE0C2B5D-ACA5-4925-9977-3A1F9AEBE902}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A80F1B4F-063D-4AB0-AB0F-02C196F3183F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C95784B7-AB10-431D-9091-E1C815CD29B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13174,7 +13174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BF37F1-9F97-46E9-B5D3-AE0DDD6E98AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1123308-68FF-4092-A51E-FD7D974264AC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14335,18 +14335,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C4AB20F5-1A40-4B28-9049-E6D5066A0699}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A13AFF85-8B8B-4195-BE6D-0448F181786F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{058ABCD1-02A4-4A0F-A6A8-6948B7ED5E0D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{35FFE861-054F-4CAD-9523-64672861C1C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8184AF56-27A8-4091-B0A3-BA58F5BC9A39}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{05F98F48-702D-4114-A63A-6FB6547FBD06}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A88D483A-F5C0-4F52-A7C0-E4D2BEEC282B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{44B0C979-4B5A-4C36-8319-676C3B3D9FCD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4C271792-F4D1-473C-ABE9-013189891092}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F6788158-107E-4A12-90D4-66DCC40C2834}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FD3428D6-6ED3-41D6-9BFF-03AAD57C8961}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CD35E0F0-DD4C-4B10-B323-984BC273BC81}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EF7ACCD9-4756-4546-97C4-AA26809C4A93}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5648AB78-6745-44CB-8430-DD036CCDDCD3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{052EFEBE-430B-4B07-BB87-4F8F80EEAA93}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{36DC84B6-9BB9-40B0-9896-47ACC6984B00}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0487FF45-B065-4E45-B77F-AACFE2032FB3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{124DA935-98CE-452A-97BC-B348D9C512A3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{339FA4C2-9DCB-4B37-88C0-1468EC64A76D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FEEB2A4B-9635-4748-A475-E8A415EDE79A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{56F803D3-BAFD-46EB-835D-B61F03129279}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F2891BA6-3463-4CF8-9D80-C33BBEBD041E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FB347BEC-FED9-44BF-8D36-70C75CAB9318}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9069D436-22F6-43D7-B65E-6A4E53C34D3C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14359,7 +14359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AAF912-C3FF-4F14-BE9B-3B6D14458058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A608EA3-1192-4208-A298-D09B3C34A6A8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15516,18 +15516,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C2C82995-77FD-4E44-AB13-8EBC54982BEA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{408BB753-2860-49B0-8FB5-7BB8D469D04D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{78607076-2321-41F3-8F2E-8B9D3550C622}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9052E45F-8CB1-4072-AD67-712CF7499DE1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D8A3E6E4-6490-44B7-A98D-877E8918C588}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{858B5A6F-4E22-4BBA-B400-063B39F8DDFD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EE44E4DD-A358-4B64-94A2-32EB1B00063E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5959BDF0-4211-42AB-8F4E-92772950B54E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{405F067B-96EF-47C6-BAFA-12A13A25C096}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{86166431-FAF3-4CC1-922F-B7AD2C1EE1F9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C91AB28B-5719-4D74-ACE2-66FEB501866C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BC6C4A11-5F88-4CB2-AFF8-BA9A3608F6C6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5562A085-1AB0-4583-AD74-CC2170EA89FF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A549E01D-92DB-4351-B365-63F4A867A58D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8F3BF14D-124B-4A7A-B451-65285E86D55A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{994DBF44-0BA8-4A1D-B8C6-F8F9185AFFBA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{10446EE0-D0CA-44DF-93A5-1CA00DCDD9EF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0192F64D-172C-48FC-A2BF-F54B4E263C62}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B456A10A-0531-4037-993C-E436D73D8E39}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AA75BF44-B16F-4ED8-B600-EF69A0B7C21E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5C60943C-D2DE-40AB-8C71-69851F6DB70C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BD46CF39-5C9D-446A-BE71-F1823E0B409C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{23C76516-76E2-4342-9200-B6D737F85E9D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A4E4272C-06C4-4CD4-98C7-C106D21716AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
